--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,41 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BaekjoonAlarm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D5ED8-B42C-4AD6-842E-5941A12E11D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1845" yWindow="1845" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1845" yWindow="1845" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lastnum</t>
+  </si>
+  <si>
+    <t>jhp98</t>
+  </si>
+  <si>
+    <t>alswnssl0528</t>
+  </si>
+  <si>
+    <t>alsrb0504</t>
+  </si>
+  <si>
+    <t>psg9790</t>
+  </si>
+  <si>
+    <t>daersh</t>
+  </si>
+  <si>
+    <t>tankgewehr</t>
+  </si>
+  <si>
+    <t>gotjd3546</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,87 +91,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,123 +412,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>lastnum</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>jhp98</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>23247</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>alswnssl0528</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>23242</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>alsrb0504</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>4134</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>psg9790</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>17412</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>daersh</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>10986</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>tankgewehr</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>2851</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>gotjd3546</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>2292</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,81 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BaekjoonAlarm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D5ED8-B42C-4AD6-842E-5941A12E11D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1845" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1845" yWindow="1845" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>lastnum</t>
-  </si>
-  <si>
-    <t>jhp98</t>
-  </si>
-  <si>
-    <t>alswnssl0528</t>
-  </si>
-  <si>
-    <t>alsrb0504</t>
-  </si>
-  <si>
-    <t>psg9790</t>
-  </si>
-  <si>
-    <t>daersh</t>
-  </si>
-  <si>
-    <t>tankgewehr</t>
-  </si>
-  <si>
-    <t>gotjd3546</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,84 +431,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>lastnum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>jhp98</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>alswnssl0528</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>alsrb0504</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>psg9790</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>daersh</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>tankgewehr</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>gotjd3546</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -467,8 +467,10 @@
           <t>jhp98</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>23247</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -477,8 +479,10 @@
           <t>alswnssl0528</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>23242</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -487,8 +491,10 @@
           <t>alsrb0504</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>5427</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -497,8 +503,10 @@
           <t>psg9790</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>17412</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -507,8 +515,10 @@
           <t>daersh</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>10986</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -517,8 +527,10 @@
           <t>tankgewehr</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>10156</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -527,10 +539,18 @@
           <t>gotjd3546</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -436,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>23247</t>
+          <t>14888</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>23242</t>
+          <t>30189</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>5427</t>
+          <t>21736</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>17412</t>
+          <t>26106</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>10986</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>10156</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
@@ -541,16 +541,51 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>2292</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
+          <t>2847</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
